--- a/Excel/PowerPivot/SalesData.xlsx
+++ b/Excel/PowerPivot/SalesData.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\DA_12pm\Excel\PowerPivot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314CE9F3-0714-44CC-B82E-4457C77C3D27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -82,11 +88,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,18 +141,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -196,7 +210,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -228,9 +242,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -262,6 +294,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -437,14 +487,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="K185" sqref="K185"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="18.5546875" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +515,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -473,7 +528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -489,7 +544,7 @@
       <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>45080</v>
       </c>
       <c r="G2">
@@ -502,7 +557,7 @@
         <v>25653.10114536258</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -518,7 +573,7 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>45176</v>
       </c>
       <c r="G3">
@@ -531,7 +586,7 @@
         <v>7125.604436820232</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -547,7 +602,7 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>45600</v>
       </c>
       <c r="G4">
@@ -557,10 +612,10 @@
         <v>135333</v>
       </c>
       <c r="I4">
-        <v>32966.95820044351</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>32966.958200443507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -576,7 +631,7 @@
       <c r="E5">
         <v>7</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>45364</v>
       </c>
       <c r="G5">
@@ -586,10 +641,10 @@
         <v>102648</v>
       </c>
       <c r="I5">
-        <v>19727.97000952691</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>19727.970009526911</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -605,7 +660,7 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>45044</v>
       </c>
       <c r="G6">
@@ -618,7 +673,7 @@
         <v>2737.137581948497</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -634,7 +689,7 @@
       <c r="E7">
         <v>8</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>45232</v>
       </c>
       <c r="G7">
@@ -644,10 +699,10 @@
         <v>314208</v>
       </c>
       <c r="I7">
-        <v>61977.35101910691</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>61977.351019106907</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -663,7 +718,7 @@
       <c r="E8">
         <v>2</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>45194</v>
       </c>
       <c r="G8">
@@ -673,10 +728,10 @@
         <v>37728</v>
       </c>
       <c r="I8">
-        <v>5884.360878915434</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>5884.3608789154341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -692,7 +747,7 @@
       <c r="E9">
         <v>3</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>44980</v>
       </c>
       <c r="G9">
@@ -702,10 +757,10 @@
         <v>43992</v>
       </c>
       <c r="I9">
-        <v>8422.093273518081</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>8422.0932735180813</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -721,7 +776,7 @@
       <c r="E10">
         <v>9</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>45162</v>
       </c>
       <c r="G10">
@@ -731,10 +786,10 @@
         <v>131976</v>
       </c>
       <c r="I10">
-        <v>26864.49349648402</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>26864.493496484021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1010</v>
       </c>
@@ -750,7 +805,7 @@
       <c r="E11">
         <v>7</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>45315</v>
       </c>
       <c r="G11">
@@ -760,10 +815,10 @@
         <v>297010</v>
       </c>
       <c r="I11">
-        <v>20035.7112479859</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>20035.711247985899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1011</v>
       </c>
@@ -779,7 +834,7 @@
       <c r="E12">
         <v>4</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>45327</v>
       </c>
       <c r="G12">
@@ -789,10 +844,10 @@
         <v>121784</v>
       </c>
       <c r="I12">
-        <v>18416.27284425334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>18416.272844253341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1012</v>
       </c>
@@ -808,7 +863,7 @@
       <c r="E13">
         <v>5</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>45550</v>
       </c>
       <c r="G13">
@@ -818,10 +873,10 @@
         <v>105875</v>
       </c>
       <c r="I13">
-        <v>25029.15369729059</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>25029.153697290589</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1013</v>
       </c>
@@ -837,7 +892,7 @@
       <c r="E14">
         <v>2</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>45229</v>
       </c>
       <c r="G14">
@@ -847,10 +902,10 @@
         <v>40730</v>
       </c>
       <c r="I14">
-        <v>4648.451297331403</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>4648.4512973314031</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1014</v>
       </c>
@@ -866,7 +921,7 @@
       <c r="E15">
         <v>8</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>45133</v>
       </c>
       <c r="G15">
@@ -876,10 +931,10 @@
         <v>274920</v>
       </c>
       <c r="I15">
-        <v>46400.06823612351</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>46400.068236123509</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1015</v>
       </c>
@@ -895,7 +950,7 @@
       <c r="E16">
         <v>4</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <v>45155</v>
       </c>
       <c r="G16">
@@ -908,7 +963,7 @@
         <v>10040.94610377927</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1016</v>
       </c>
@@ -924,7 +979,7 @@
       <c r="E17">
         <v>9</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <v>45504</v>
       </c>
       <c r="G17">
@@ -937,7 +992,7 @@
         <v>25816.35105763554</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1017</v>
       </c>
@@ -953,7 +1008,7 @@
       <c r="E18">
         <v>5</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <v>45001</v>
       </c>
       <c r="G18">
@@ -963,10 +1018,10 @@
         <v>184850</v>
       </c>
       <c r="I18">
-        <v>29524.35727017352</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>29524.357270173521</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1018</v>
       </c>
@@ -982,7 +1037,7 @@
       <c r="E19">
         <v>9</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <v>45361</v>
       </c>
       <c r="G19">
@@ -992,10 +1047,10 @@
         <v>309285</v>
       </c>
       <c r="I19">
-        <v>49418.91690999248</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>49418.916909992477</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1019</v>
       </c>
@@ -1011,7 +1066,7 @@
       <c r="E20">
         <v>4</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="3">
         <v>45029</v>
       </c>
       <c r="G20">
@@ -1021,10 +1076,10 @@
         <v>137460</v>
       </c>
       <c r="I20">
-        <v>12418.97387038284</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>12418.973870382841</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1020</v>
       </c>
@@ -1040,7 +1095,7 @@
       <c r="E21">
         <v>5</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="3">
         <v>45348</v>
       </c>
       <c r="G21">
@@ -1050,10 +1105,10 @@
         <v>19610</v>
       </c>
       <c r="I21">
-        <v>3665.389610784706</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>3665.3896107847058</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1021</v>
       </c>
@@ -1069,7 +1124,7 @@
       <c r="E22">
         <v>9</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="3">
         <v>45630</v>
       </c>
       <c r="G22">
@@ -1082,7 +1137,7 @@
         <v>21467.53162575818</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1022</v>
       </c>
@@ -1098,7 +1153,7 @@
       <c r="E23">
         <v>8</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="3">
         <v>45232</v>
       </c>
       <c r="G23">
@@ -1108,10 +1163,10 @@
         <v>211144</v>
       </c>
       <c r="I23">
-        <v>16419.60359272839</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16419.603592728388</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1023</v>
       </c>
@@ -1127,7 +1182,7 @@
       <c r="E24">
         <v>3</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="3">
         <v>45024</v>
       </c>
       <c r="G24">
@@ -1137,10 +1192,10 @@
         <v>135333</v>
       </c>
       <c r="I24">
-        <v>6840.024830087897</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>6840.0248300878966</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1024</v>
       </c>
@@ -1156,7 +1211,7 @@
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="3">
         <v>45261</v>
       </c>
       <c r="G25">
@@ -1166,10 +1221,10 @@
         <v>45111</v>
       </c>
       <c r="I25">
-        <v>3308.405229899078</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>3308.4052298990782</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1025</v>
       </c>
@@ -1185,7 +1240,7 @@
       <c r="E26">
         <v>3</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="3">
         <v>45361</v>
       </c>
       <c r="G26">
@@ -1195,10 +1250,10 @@
         <v>56592</v>
       </c>
       <c r="I26">
-        <v>8185.084329985736</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>8185.0843299857361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1026</v>
       </c>
@@ -1214,7 +1269,7 @@
       <c r="E27">
         <v>4</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="3">
         <v>45373</v>
       </c>
       <c r="G27">
@@ -1224,10 +1279,10 @@
         <v>137460</v>
       </c>
       <c r="I27">
-        <v>23535.95291398712</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>23535.952913987119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1027</v>
       </c>
@@ -1243,7 +1298,7 @@
       <c r="E28">
         <v>2</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="3">
         <v>45234</v>
       </c>
       <c r="G28">
@@ -1253,10 +1308,10 @@
         <v>78290</v>
       </c>
       <c r="I28">
-        <v>16351.48420757487</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16351.484207574869</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1028</v>
       </c>
@@ -1272,7 +1327,7 @@
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="3">
         <v>45175</v>
       </c>
       <c r="G29">
@@ -1285,7 +1340,7 @@
         <v>1510.621324230402</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1029</v>
       </c>
@@ -1301,7 +1356,7 @@
       <c r="E30">
         <v>7</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="3">
         <v>45092</v>
       </c>
       <c r="G30">
@@ -1314,7 +1369,7 @@
         <v>28723.04277814538</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1030</v>
       </c>
@@ -1330,7 +1385,7 @@
       <c r="E31">
         <v>8</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="3">
         <v>45407</v>
       </c>
       <c r="G31">
@@ -1343,7 +1398,7 @@
         <v>30060.90151992163</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1031</v>
       </c>
@@ -1359,7 +1414,7 @@
       <c r="E32">
         <v>7</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="3">
         <v>45261</v>
       </c>
       <c r="G32">
@@ -1369,10 +1424,10 @@
         <v>274932</v>
       </c>
       <c r="I32">
-        <v>36209.5502626915</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>36209.550262691497</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1032</v>
       </c>
@@ -1388,7 +1443,7 @@
       <c r="E33">
         <v>5</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="3">
         <v>45468</v>
       </c>
       <c r="G33">
@@ -1398,10 +1453,10 @@
         <v>119890</v>
       </c>
       <c r="I33">
-        <v>28364.48897292272</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>28364.488972922722</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1033</v>
       </c>
@@ -1417,7 +1472,7 @@
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="3">
         <v>45032</v>
       </c>
       <c r="G34">
@@ -1430,7 +1485,7 @@
         <v>9747.749223468094</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1034</v>
       </c>
@@ -1446,7 +1501,7 @@
       <c r="E35">
         <v>7</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="3">
         <v>45489</v>
       </c>
       <c r="G35">
@@ -1456,10 +1511,10 @@
         <v>163499</v>
       </c>
       <c r="I35">
-        <v>14878.46818837885</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>14878.468188378851</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1035</v>
       </c>
@@ -1475,7 +1530,7 @@
       <c r="E36">
         <v>7</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="3">
         <v>45007</v>
       </c>
       <c r="G36">
@@ -1485,10 +1540,10 @@
         <v>297010</v>
       </c>
       <c r="I36">
-        <v>37377.43640401967</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>37377.436404019667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1036</v>
       </c>
@@ -1504,7 +1559,7 @@
       <c r="E37">
         <v>9</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="3">
         <v>45059</v>
       </c>
       <c r="G37">
@@ -1517,7 +1572,7 @@
         <v>9497.47619663974</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1037</v>
       </c>
@@ -1533,7 +1588,7 @@
       <c r="E38">
         <v>3</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="3">
         <v>45064</v>
       </c>
       <c r="G38">
@@ -1543,10 +1598,10 @@
         <v>70071</v>
       </c>
       <c r="I38">
-        <v>13616.14838153855</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>13616.148381538551</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1038</v>
       </c>
@@ -1562,7 +1617,7 @@
       <c r="E39">
         <v>9</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="3">
         <v>45110</v>
       </c>
       <c r="G39">
@@ -1572,10 +1627,10 @@
         <v>215802</v>
       </c>
       <c r="I39">
-        <v>12865.88407134761</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>12865.884071347609</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1039</v>
       </c>
@@ -1591,7 +1646,7 @@
       <c r="E40">
         <v>1</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="3">
         <v>45327</v>
       </c>
       <c r="G40">
@@ -1601,10 +1656,10 @@
         <v>20365</v>
       </c>
       <c r="I40">
-        <v>4201.358484173513</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>4201.3584841735128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1040</v>
       </c>
@@ -1620,7 +1675,7 @@
       <c r="E41">
         <v>1</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="3">
         <v>45256</v>
       </c>
       <c r="G41">
@@ -1630,10 +1685,10 @@
         <v>39145</v>
       </c>
       <c r="I41">
-        <v>8439.199205712584</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>8439.1992057125844</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1041</v>
       </c>
@@ -1649,7 +1704,7 @@
       <c r="E42">
         <v>4</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="3">
         <v>45434</v>
       </c>
       <c r="G42">
@@ -1662,7 +1717,7 @@
         <v>36106.91386247045</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1042</v>
       </c>
@@ -1678,7 +1733,7 @@
       <c r="E43">
         <v>9</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="3">
         <v>44995</v>
       </c>
       <c r="G43">
@@ -1688,10 +1743,10 @@
         <v>353484</v>
       </c>
       <c r="I43">
-        <v>74198.91663719081</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>74198.916637190807</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1043</v>
       </c>
@@ -1707,7 +1762,7 @@
       <c r="E44">
         <v>6</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="3">
         <v>45472</v>
       </c>
       <c r="G44">
@@ -1717,10 +1772,10 @@
         <v>206190</v>
       </c>
       <c r="I44">
-        <v>44336.32132145758</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>44336.321321457581</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1044</v>
       </c>
@@ -1736,7 +1791,7 @@
       <c r="E45">
         <v>3</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="3">
         <v>44979</v>
       </c>
       <c r="G45">
@@ -1746,10 +1801,10 @@
         <v>91338</v>
       </c>
       <c r="I45">
-        <v>7972.071736651101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>7972.0717366511008</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1045</v>
       </c>
@@ -1765,7 +1820,7 @@
       <c r="E46">
         <v>1</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="3">
         <v>45376</v>
       </c>
       <c r="G46">
@@ -1775,10 +1830,10 @@
         <v>45111</v>
       </c>
       <c r="I46">
-        <v>4382.008071347642</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>4382.0080713476418</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1046</v>
       </c>
@@ -1794,7 +1849,7 @@
       <c r="E47">
         <v>4</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="3">
         <v>45131</v>
       </c>
       <c r="G47">
@@ -1807,7 +1862,7 @@
         <v>14970.8700694198</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1047</v>
       </c>
@@ -1823,7 +1878,7 @@
       <c r="E48">
         <v>9</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="3">
         <v>45052</v>
       </c>
       <c r="G48">
@@ -1833,10 +1888,10 @@
         <v>40365</v>
       </c>
       <c r="I48">
-        <v>9347.453271223891</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>9347.4532712238906</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1048</v>
       </c>
@@ -1852,7 +1907,7 @@
       <c r="E49">
         <v>3</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="3">
         <v>44969</v>
       </c>
       <c r="G49">
@@ -1862,10 +1917,10 @@
         <v>11766</v>
       </c>
       <c r="I49">
-        <v>1332.373797460111</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>1332.3737974601111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1049</v>
       </c>
@@ -1881,7 +1936,7 @@
       <c r="E50">
         <v>9</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="3">
         <v>45037</v>
       </c>
       <c r="G50">
@@ -1891,10 +1946,10 @@
         <v>381870</v>
       </c>
       <c r="I50">
-        <v>64024.83405717165</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>64024.834057171647</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1050</v>
       </c>
@@ -1910,7 +1965,7 @@
       <c r="E51">
         <v>7</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="3">
         <v>45589</v>
       </c>
       <c r="G51">
@@ -1920,10 +1975,10 @@
         <v>163499</v>
       </c>
       <c r="I51">
-        <v>30508.32687732754</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>30508.326877327541</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1051</v>
       </c>
@@ -1939,7 +1994,7 @@
       <c r="E52">
         <v>4</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="3">
         <v>45109</v>
       </c>
       <c r="G52">
@@ -1949,10 +2004,10 @@
         <v>121784</v>
       </c>
       <c r="I52">
-        <v>17097.22169212044</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>17097.221692120442</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1052</v>
       </c>
@@ -1968,7 +2023,7 @@
       <c r="E53">
         <v>3</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="3">
         <v>45021</v>
       </c>
       <c r="G53">
@@ -1978,10 +2033,10 @@
         <v>127290</v>
       </c>
       <c r="I53">
-        <v>24535.97373570689</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>24535.973735706892</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1053</v>
       </c>
@@ -1997,7 +2052,7 @@
       <c r="E54">
         <v>5</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="3">
         <v>45300</v>
       </c>
       <c r="G54">
@@ -2010,7 +2065,7 @@
         <v>23412.97752337511</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1054</v>
       </c>
@@ -2026,7 +2081,7 @@
       <c r="E55">
         <v>5</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="3">
         <v>45446</v>
       </c>
       <c r="G55">
@@ -2039,7 +2094,7 @@
         <v>17717.16419902167</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1055</v>
       </c>
@@ -2055,7 +2110,7 @@
       <c r="E56">
         <v>3</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="3">
         <v>45286</v>
       </c>
       <c r="G56">
@@ -2065,10 +2120,10 @@
         <v>105897</v>
       </c>
       <c r="I56">
-        <v>16727.08902271478</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>16727.089022714779</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1056</v>
       </c>
@@ -2084,7 +2139,7 @@
       <c r="E57">
         <v>9</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="3">
         <v>45622</v>
       </c>
       <c r="G57">
@@ -2094,10 +2149,10 @@
         <v>381870</v>
       </c>
       <c r="I57">
-        <v>52602.18583810901</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>52602.185838109013</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1057</v>
       </c>
@@ -2113,7 +2168,7 @@
       <c r="E58">
         <v>4</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="3">
         <v>45207</v>
       </c>
       <c r="G58">
@@ -2126,7 +2181,7 @@
         <v>15462.0774636435</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1058</v>
       </c>
@@ -2142,7 +2197,7 @@
       <c r="E59">
         <v>5</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="3">
         <v>45121</v>
       </c>
       <c r="G59">
@@ -2152,10 +2207,10 @@
         <v>171825</v>
       </c>
       <c r="I59">
-        <v>20803.28065673917</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>20803.280656739171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1059</v>
       </c>
@@ -2171,7 +2226,7 @@
       <c r="E60">
         <v>4</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="3">
         <v>45121</v>
       </c>
       <c r="G60">
@@ -2184,7 +2239,7 @@
         <v>10451.02653940287</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1060</v>
       </c>
@@ -2200,7 +2255,7 @@
       <c r="E61">
         <v>5</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="3">
         <v>45593</v>
       </c>
       <c r="G61">
@@ -2210,10 +2265,10 @@
         <v>176495</v>
       </c>
       <c r="I61">
-        <v>27598.78717551285</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>27598.787175512851</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1061</v>
       </c>
@@ -2229,7 +2284,7 @@
       <c r="E62">
         <v>7</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="3">
         <v>45019</v>
       </c>
       <c r="G62">
@@ -2242,7 +2297,7 @@
         <v>18807.80851423931</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1062</v>
       </c>
@@ -2258,7 +2313,7 @@
       <c r="E63">
         <v>9</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="3">
         <v>45598</v>
       </c>
       <c r="G63">
@@ -2271,7 +2326,7 @@
         <v>3867.171980935881</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1063</v>
       </c>
@@ -2287,7 +2342,7 @@
       <c r="E64">
         <v>7</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="3">
         <v>44987</v>
       </c>
       <c r="G64">
@@ -2300,7 +2355,7 @@
         <v>29295.94059702758</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1064</v>
       </c>
@@ -2316,7 +2371,7 @@
       <c r="E65">
         <v>5</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="3">
         <v>45560</v>
       </c>
       <c r="G65">
@@ -2326,10 +2381,10 @@
         <v>225555</v>
       </c>
       <c r="I65">
-        <v>30744.41606502806</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>30744.416065028061</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1065</v>
       </c>
@@ -2345,7 +2400,7 @@
       <c r="E66">
         <v>7</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="3">
         <v>44977</v>
       </c>
       <c r="G66">
@@ -2355,10 +2410,10 @@
         <v>213122</v>
       </c>
       <c r="I66">
-        <v>24842.1731850481</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>24842.173185048101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1066</v>
       </c>
@@ -2374,7 +2429,7 @@
       <c r="E67">
         <v>5</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="3">
         <v>45329</v>
       </c>
       <c r="G67">
@@ -2384,10 +2439,10 @@
         <v>22425</v>
       </c>
       <c r="I67">
-        <v>4397.762878589717</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>4397.7628785897168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1067</v>
       </c>
@@ -2403,7 +2458,7 @@
       <c r="E68">
         <v>3</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="3">
         <v>44931</v>
       </c>
       <c r="G68">
@@ -2413,10 +2468,10 @@
         <v>91338</v>
       </c>
       <c r="I68">
-        <v>17239.45576500122</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>17239.455765001221</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1068</v>
       </c>
@@ -2432,7 +2487,7 @@
       <c r="E69">
         <v>7</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="3">
         <v>45392</v>
       </c>
       <c r="G69">
@@ -2442,10 +2497,10 @@
         <v>184751</v>
       </c>
       <c r="I69">
-        <v>15398.28492790751</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>15398.284927907511</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1069</v>
       </c>
@@ -2461,7 +2516,7 @@
       <c r="E70">
         <v>2</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="3">
         <v>45530</v>
       </c>
       <c r="G70">
@@ -2471,10 +2526,10 @@
         <v>9174</v>
       </c>
       <c r="I70">
-        <v>2070.808700887184</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>2070.8087008871839</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1070</v>
       </c>
@@ -2490,7 +2545,7 @@
       <c r="E71">
         <v>9</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="3">
         <v>45608</v>
       </c>
       <c r="G71">
@@ -2503,7 +2558,7 @@
         <v>31339.54735545137</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1071</v>
       </c>
@@ -2519,7 +2574,7 @@
       <c r="E72">
         <v>1</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="3">
         <v>45460</v>
       </c>
       <c r="G72">
@@ -2529,10 +2584,10 @@
         <v>45111</v>
       </c>
       <c r="I72">
-        <v>8945.158632478695</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>8945.1586324786949</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1072</v>
       </c>
@@ -2548,7 +2603,7 @@
       <c r="E73">
         <v>6</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73" s="3">
         <v>45331</v>
       </c>
       <c r="G73">
@@ -2558,10 +2613,10 @@
         <v>27522</v>
       </c>
       <c r="I73">
-        <v>4530.95153465237</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>4530.9515346523704</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1073</v>
       </c>
@@ -2577,7 +2632,7 @@
       <c r="E74">
         <v>7</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74" s="3">
         <v>45439</v>
       </c>
       <c r="G74">
@@ -2587,10 +2642,10 @@
         <v>167846</v>
       </c>
       <c r="I74">
-        <v>41884.04296247068</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>41884.042962470681</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1074</v>
       </c>
@@ -2606,7 +2661,7 @@
       <c r="E75">
         <v>8</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="3">
         <v>45571</v>
       </c>
       <c r="G75">
@@ -2616,10 +2671,10 @@
         <v>360888</v>
       </c>
       <c r="I75">
-        <v>72351.05143691413</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>72351.051436914131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1075</v>
       </c>
@@ -2635,7 +2690,7 @@
       <c r="E76">
         <v>9</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76" s="3">
         <v>45159</v>
       </c>
       <c r="G76">
@@ -2648,7 +2703,7 @@
         <v>7901.404876302744</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1076</v>
       </c>
@@ -2664,7 +2719,7 @@
       <c r="E77">
         <v>2</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77" s="3">
         <v>45450</v>
       </c>
       <c r="G77">
@@ -2677,7 +2732,7 @@
         <v>15210.52183468251</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1077</v>
       </c>
@@ -2693,7 +2748,7 @@
       <c r="E78">
         <v>2</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F78" s="3">
         <v>45272</v>
       </c>
       <c r="G78">
@@ -2703,10 +2758,10 @@
         <v>78552</v>
       </c>
       <c r="I78">
-        <v>6176.197904160677</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>6176.1979041606774</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1078</v>
       </c>
@@ -2722,7 +2777,7 @@
       <c r="E79">
         <v>5</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="3">
         <v>44972</v>
       </c>
       <c r="G79">
@@ -2735,7 +2790,7 @@
         <v>10899.07025501739</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1079</v>
       </c>
@@ -2751,7 +2806,7 @@
       <c r="E80">
         <v>5</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80" s="3">
         <v>45472</v>
       </c>
       <c r="G80">
@@ -2761,10 +2816,10 @@
         <v>184850</v>
       </c>
       <c r="I80">
-        <v>35641.44911980702</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>35641.449119807017</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1080</v>
       </c>
@@ -2780,7 +2835,7 @@
       <c r="E81">
         <v>6</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81" s="3">
         <v>45004</v>
       </c>
       <c r="G81">
@@ -2790,10 +2845,10 @@
         <v>206190</v>
       </c>
       <c r="I81">
-        <v>30680.30856630252</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>30680.308566302519</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1081</v>
       </c>
@@ -2809,7 +2864,7 @@
       <c r="E82">
         <v>3</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F82" s="3">
         <v>45656</v>
       </c>
       <c r="G82">
@@ -2819,10 +2874,10 @@
         <v>91338</v>
       </c>
       <c r="I82">
-        <v>18352.27565758387</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>18352.275657583868</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1082</v>
       </c>
@@ -2838,7 +2893,7 @@
       <c r="E83">
         <v>8</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83" s="3">
         <v>44999</v>
       </c>
       <c r="G83">
@@ -2848,10 +2903,10 @@
         <v>117312</v>
       </c>
       <c r="I83">
-        <v>8280.257079731429</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>8280.2570797314293</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1083</v>
       </c>
@@ -2867,7 +2922,7 @@
       <c r="E84">
         <v>1</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F84" s="3">
         <v>45175</v>
       </c>
       <c r="G84">
@@ -2877,10 +2932,10 @@
         <v>18864</v>
       </c>
       <c r="I84">
-        <v>2967.236842881079</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>2967.2368428810792</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1084</v>
       </c>
@@ -2896,7 +2951,7 @@
       <c r="E85">
         <v>6</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85" s="3">
         <v>44973</v>
       </c>
       <c r="G85">
@@ -2909,7 +2964,7 @@
         <v>2959.485816137068</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1085</v>
       </c>
@@ -2925,7 +2980,7 @@
       <c r="E86">
         <v>4</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F86" s="3">
         <v>45047</v>
       </c>
       <c r="G86">
@@ -2935,10 +2990,10 @@
         <v>121784</v>
       </c>
       <c r="I86">
-        <v>17220.26294099998</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>17220.262940999979</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1086</v>
       </c>
@@ -2954,7 +3009,7 @@
       <c r="E87">
         <v>1</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87" s="3">
         <v>45140</v>
       </c>
       <c r="G87">
@@ -2964,10 +3019,10 @@
         <v>21175</v>
       </c>
       <c r="I87">
-        <v>3616.51158822709</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>3616.5115882270902</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1087</v>
       </c>
@@ -2983,7 +3038,7 @@
       <c r="E88">
         <v>7</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F88" s="3">
         <v>45165</v>
       </c>
       <c r="G88">
@@ -2993,10 +3048,10 @@
         <v>148225</v>
       </c>
       <c r="I88">
-        <v>22301.58806052671</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>22301.588060526708</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1088</v>
       </c>
@@ -3012,7 +3067,7 @@
       <c r="E89">
         <v>9</v>
       </c>
-      <c r="F89" s="2">
+      <c r="F89" s="3">
         <v>44982</v>
       </c>
       <c r="G89">
@@ -3022,10 +3077,10 @@
         <v>332730</v>
       </c>
       <c r="I89">
-        <v>52562.06595731083</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>52562.065957310828</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1089</v>
       </c>
@@ -3041,7 +3096,7 @@
       <c r="E90">
         <v>4</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90" s="3">
         <v>45276</v>
       </c>
       <c r="G90">
@@ -3054,7 +3109,7 @@
         <v>10979.97368553291</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1090</v>
       </c>
@@ -3070,7 +3125,7 @@
       <c r="E91">
         <v>4</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F91" s="3">
         <v>45033</v>
       </c>
       <c r="G91">
@@ -3080,10 +3135,10 @@
         <v>141196</v>
       </c>
       <c r="I91">
-        <v>18608.36703675266</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>18608.367036752661</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1091</v>
       </c>
@@ -3099,7 +3154,7 @@
       <c r="E92">
         <v>6</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F92" s="3">
         <v>44974</v>
       </c>
       <c r="G92">
@@ -3109,10 +3164,10 @@
         <v>235656</v>
       </c>
       <c r="I92">
-        <v>48162.52400397201</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>48162.524003972008</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1092</v>
       </c>
@@ -3128,7 +3183,7 @@
       <c r="E93">
         <v>3</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F93" s="3">
         <v>45499</v>
       </c>
       <c r="G93">
@@ -3138,10 +3193,10 @@
         <v>71934</v>
       </c>
       <c r="I93">
-        <v>3772.263160825243</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>3772.2631608252432</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1093</v>
       </c>
@@ -3157,7 +3212,7 @@
       <c r="E94">
         <v>6</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F94" s="3">
         <v>45263</v>
       </c>
       <c r="G94">
@@ -3167,10 +3222,10 @@
         <v>235656</v>
       </c>
       <c r="I94">
-        <v>39988.1226390438</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>39988.122639043802</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1094</v>
       </c>
@@ -3186,7 +3241,7 @@
       <c r="E95">
         <v>7</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F95" s="3">
         <v>44952</v>
       </c>
       <c r="G95">
@@ -3196,10 +3251,10 @@
         <v>167846</v>
       </c>
       <c r="I95">
-        <v>27375.96281295437</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>27375.962812954371</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1095</v>
       </c>
@@ -3215,7 +3270,7 @@
       <c r="E96">
         <v>3</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F96" s="3">
         <v>45183</v>
       </c>
       <c r="G96">
@@ -3228,7 +3283,7 @@
         <v>17649.77286559168</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1096</v>
       </c>
@@ -3244,7 +3299,7 @@
       <c r="E97">
         <v>7</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F97" s="3">
         <v>44934</v>
       </c>
       <c r="G97">
@@ -3254,10 +3309,10 @@
         <v>240555</v>
       </c>
       <c r="I97">
-        <v>40847.65176880195</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>40847.651768801952</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1097</v>
       </c>
@@ -3273,7 +3328,7 @@
       <c r="E98">
         <v>3</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F98" s="3">
         <v>45551</v>
       </c>
       <c r="G98">
@@ -3286,7 +3341,7 @@
         <v>13157.40487699913</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1098</v>
       </c>
@@ -3302,7 +3357,7 @@
       <c r="E99">
         <v>2</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F99" s="3">
         <v>45179</v>
       </c>
       <c r="G99">
@@ -3315,7 +3370,7 @@
         <v>17879.79806201284</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1099</v>
       </c>
@@ -3331,7 +3386,7 @@
       <c r="E100">
         <v>4</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F100" s="3">
         <v>45618</v>
       </c>
       <c r="G100">
@@ -3341,10 +3396,10 @@
         <v>105572</v>
       </c>
       <c r="I100">
-        <v>12510.79417577064</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>12510.794175770639</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1100</v>
       </c>
@@ -3360,7 +3415,7 @@
       <c r="E101">
         <v>8</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F101" s="3">
         <v>45645</v>
       </c>
       <c r="G101">
@@ -3373,7 +3428,7 @@
         <v>14235.75195631349</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1101</v>
       </c>
@@ -3389,7 +3444,7 @@
       <c r="E102">
         <v>9</v>
       </c>
-      <c r="F102" s="2">
+      <c r="F102" s="3">
         <v>45229</v>
       </c>
       <c r="G102">
@@ -3399,10 +3454,10 @@
         <v>190575</v>
       </c>
       <c r="I102">
-        <v>25674.14441115671</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>25674.144411156711</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1102</v>
       </c>
@@ -3418,7 +3473,7 @@
       <c r="E103">
         <v>7</v>
       </c>
-      <c r="F103" s="2">
+      <c r="F103" s="3">
         <v>45565</v>
       </c>
       <c r="G103">
@@ -3428,10 +3483,10 @@
         <v>240555</v>
       </c>
       <c r="I103">
-        <v>25880.33177826366</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>25880.331778263659</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1103</v>
       </c>
@@ -3447,7 +3502,7 @@
       <c r="E104">
         <v>1</v>
       </c>
-      <c r="F104" s="2">
+      <c r="F104" s="3">
         <v>44982</v>
       </c>
       <c r="G104">
@@ -3460,7 +3515,7 @@
         <v>5266.855142389144</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1104</v>
       </c>
@@ -3476,7 +3531,7 @@
       <c r="E105">
         <v>3</v>
       </c>
-      <c r="F105" s="2">
+      <c r="F105" s="3">
         <v>45652</v>
       </c>
       <c r="G105">
@@ -3486,10 +3541,10 @@
         <v>63525</v>
       </c>
       <c r="I105">
-        <v>14761.33485434987</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>14761.334854349871</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1105</v>
       </c>
@@ -3505,7 +3560,7 @@
       <c r="E106">
         <v>9</v>
       </c>
-      <c r="F106" s="2">
+      <c r="F106" s="3">
         <v>45452</v>
       </c>
       <c r="G106">
@@ -3518,7 +3573,7 @@
         <v>25894.1262554442</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1106</v>
       </c>
@@ -3534,7 +3589,7 @@
       <c r="E107">
         <v>1</v>
       </c>
-      <c r="F107" s="2">
+      <c r="F107" s="3">
         <v>45400</v>
       </c>
       <c r="G107">
@@ -3547,7 +3602,7 @@
         <v>1485.615143772279</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1107</v>
       </c>
@@ -3563,7 +3618,7 @@
       <c r="E108">
         <v>9</v>
       </c>
-      <c r="F108" s="2">
+      <c r="F108" s="3">
         <v>44954</v>
       </c>
       <c r="G108">
@@ -3576,7 +3631,7 @@
         <v>16976.92229679674</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1108</v>
       </c>
@@ -3592,7 +3647,7 @@
       <c r="E109">
         <v>8</v>
       </c>
-      <c r="F109" s="2">
+      <c r="F109" s="3">
         <v>45004</v>
       </c>
       <c r="G109">
@@ -3605,7 +3660,7 @@
         <v>70452.23677257754</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1109</v>
       </c>
@@ -3621,7 +3676,7 @@
       <c r="E110">
         <v>1</v>
       </c>
-      <c r="F110" s="2">
+      <c r="F110" s="3">
         <v>45142</v>
       </c>
       <c r="G110">
@@ -3634,7 +3689,7 @@
         <v>756.137726017163</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1110</v>
       </c>
@@ -3650,7 +3705,7 @@
       <c r="E111">
         <v>6</v>
       </c>
-      <c r="F111" s="2">
+      <c r="F111" s="3">
         <v>45312</v>
       </c>
       <c r="G111">
@@ -3660,10 +3715,10 @@
         <v>127050</v>
       </c>
       <c r="I111">
-        <v>8949.723797962322</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>8949.7237979623224</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1111</v>
       </c>
@@ -3679,7 +3734,7 @@
       <c r="E112">
         <v>5</v>
       </c>
-      <c r="F112" s="2">
+      <c r="F112" s="3">
         <v>45291</v>
       </c>
       <c r="G112">
@@ -3689,10 +3744,10 @@
         <v>184850</v>
       </c>
       <c r="I112">
-        <v>43208.7068079798</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>43208.706807979797</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1112</v>
       </c>
@@ -3708,7 +3763,7 @@
       <c r="E113">
         <v>6</v>
       </c>
-      <c r="F113" s="2">
+      <c r="F113" s="3">
         <v>45592</v>
       </c>
       <c r="G113">
@@ -3718,10 +3773,10 @@
         <v>111834</v>
       </c>
       <c r="I113">
-        <v>23263.36506162702</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>23263.365061627021</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1113</v>
       </c>
@@ -3737,7 +3792,7 @@
       <c r="E114">
         <v>5</v>
       </c>
-      <c r="F114" s="2">
+      <c r="F114" s="3">
         <v>45452</v>
       </c>
       <c r="G114">
@@ -3747,10 +3802,10 @@
         <v>22425</v>
       </c>
       <c r="I114">
-        <v>1224.506382472554</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>1224.5063824725539</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1114</v>
       </c>
@@ -3766,7 +3821,7 @@
       <c r="E115">
         <v>6</v>
       </c>
-      <c r="F115" s="2">
+      <c r="F115" s="3">
         <v>45625</v>
       </c>
       <c r="G115">
@@ -3776,10 +3831,10 @@
         <v>235656</v>
       </c>
       <c r="I115">
-        <v>42482.51829452923</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>42482.518294529233</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1115</v>
       </c>
@@ -3795,7 +3850,7 @@
       <c r="E116">
         <v>5</v>
       </c>
-      <c r="F116" s="2">
+      <c r="F116" s="3">
         <v>45238</v>
       </c>
       <c r="G116">
@@ -3805,10 +3860,10 @@
         <v>119890</v>
       </c>
       <c r="I116">
-        <v>24487.45261776628</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>24487.452617766281</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1116</v>
       </c>
@@ -3824,7 +3879,7 @@
       <c r="E117">
         <v>5</v>
       </c>
-      <c r="F117" s="2">
+      <c r="F117" s="3">
         <v>44933</v>
       </c>
       <c r="G117">
@@ -3837,7 +3892,7 @@
         <v>28168.90396345796</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1117</v>
       </c>
@@ -3853,7 +3908,7 @@
       <c r="E118">
         <v>4</v>
       </c>
-      <c r="F118" s="2">
+      <c r="F118" s="3">
         <v>44929</v>
       </c>
       <c r="G118">
@@ -3863,10 +3918,10 @@
         <v>180444</v>
       </c>
       <c r="I118">
-        <v>11509.49564991569</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>11509.495649915691</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1118</v>
       </c>
@@ -3882,7 +3937,7 @@
       <c r="E119">
         <v>3</v>
       </c>
-      <c r="F119" s="2">
+      <c r="F119" s="3">
         <v>45549</v>
       </c>
       <c r="G119">
@@ -3892,10 +3947,10 @@
         <v>105897</v>
       </c>
       <c r="I119">
-        <v>6932.463774413222</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>6932.4637744132224</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1119</v>
       </c>
@@ -3911,7 +3966,7 @@
       <c r="E120">
         <v>3</v>
       </c>
-      <c r="F120" s="2">
+      <c r="F120" s="3">
         <v>45289</v>
       </c>
       <c r="G120">
@@ -3924,7 +3979,7 @@
         <v>974.9584999677902</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1120</v>
       </c>
@@ -3940,7 +3995,7 @@
       <c r="E121">
         <v>4</v>
       </c>
-      <c r="F121" s="2">
+      <c r="F121" s="3">
         <v>45434</v>
       </c>
       <c r="G121">
@@ -3950,10 +4005,10 @@
         <v>75456</v>
       </c>
       <c r="I121">
-        <v>16456.04257414296</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>16456.042574142961</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1121</v>
       </c>
@@ -3969,7 +4024,7 @@
       <c r="E122">
         <v>9</v>
       </c>
-      <c r="F122" s="2">
+      <c r="F122" s="3">
         <v>45200</v>
       </c>
       <c r="G122">
@@ -3979,10 +4034,10 @@
         <v>353484</v>
       </c>
       <c r="I122">
-        <v>82056.8000208445</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>82056.800020844501</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1122</v>
       </c>
@@ -3998,7 +4053,7 @@
       <c r="E123">
         <v>2</v>
       </c>
-      <c r="F123" s="2">
+      <c r="F123" s="3">
         <v>45432</v>
       </c>
       <c r="G123">
@@ -4008,10 +4063,10 @@
         <v>7844</v>
       </c>
       <c r="I123">
-        <v>584.8655545595872</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>584.86555455958717</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1123</v>
       </c>
@@ -4027,7 +4082,7 @@
       <c r="E124">
         <v>9</v>
       </c>
-      <c r="F124" s="2">
+      <c r="F124" s="3">
         <v>44941</v>
       </c>
       <c r="G124">
@@ -4037,10 +4092,10 @@
         <v>352305</v>
       </c>
       <c r="I124">
-        <v>34237.42510360402</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>34237.425103604022</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1124</v>
       </c>
@@ -4056,7 +4111,7 @@
       <c r="E125">
         <v>1</v>
       </c>
-      <c r="F125" s="2">
+      <c r="F125" s="3">
         <v>45118</v>
       </c>
       <c r="G125">
@@ -4069,7 +4124,7 @@
         <v>3526.107050976821</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1125</v>
       </c>
@@ -4085,7 +4140,7 @@
       <c r="E126">
         <v>1</v>
       </c>
-      <c r="F126" s="2">
+      <c r="F126" s="3">
         <v>45557</v>
       </c>
       <c r="G126">
@@ -4098,7 +4153,7 @@
         <v>1626.516974578183</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1126</v>
       </c>
@@ -4114,7 +4169,7 @@
       <c r="E127">
         <v>5</v>
       </c>
-      <c r="F127" s="2">
+      <c r="F127" s="3">
         <v>45411</v>
       </c>
       <c r="G127">
@@ -4124,10 +4179,10 @@
         <v>196380</v>
       </c>
       <c r="I127">
-        <v>42712.28822886188</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>42712.288228861878</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1127</v>
       </c>
@@ -4143,7 +4198,7 @@
       <c r="E128">
         <v>6</v>
       </c>
-      <c r="F128" s="2">
+      <c r="F128" s="3">
         <v>44954</v>
       </c>
       <c r="G128">
@@ -4153,10 +4208,10 @@
         <v>27522</v>
       </c>
       <c r="I128">
-        <v>3204.366713817846</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>3204.3667138178462</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1128</v>
       </c>
@@ -4172,7 +4227,7 @@
       <c r="E129">
         <v>6</v>
       </c>
-      <c r="F129" s="2">
+      <c r="F129" s="3">
         <v>45640</v>
       </c>
       <c r="G129">
@@ -4182,10 +4237,10 @@
         <v>270666</v>
       </c>
       <c r="I129">
-        <v>30392.77463443551</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>30392.774634435511</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1129</v>
       </c>
@@ -4201,7 +4256,7 @@
       <c r="E130">
         <v>3</v>
       </c>
-      <c r="F130" s="2">
+      <c r="F130" s="3">
         <v>44965</v>
       </c>
       <c r="G130">
@@ -4211,10 +4266,10 @@
         <v>43992</v>
       </c>
       <c r="I130">
-        <v>4200.317630725188</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>4200.3176307251879</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1130</v>
       </c>
@@ -4230,7 +4285,7 @@
       <c r="E131">
         <v>7</v>
       </c>
-      <c r="F131" s="2">
+      <c r="F131" s="3">
         <v>45199</v>
       </c>
       <c r="G131">
@@ -4240,10 +4295,10 @@
         <v>297010</v>
       </c>
       <c r="I131">
-        <v>50960.64278016656</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>50960.642780166563</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1131</v>
       </c>
@@ -4259,7 +4314,7 @@
       <c r="E132">
         <v>9</v>
       </c>
-      <c r="F132" s="2">
+      <c r="F132" s="3">
         <v>45157</v>
       </c>
       <c r="G132">
@@ -4269,10 +4324,10 @@
         <v>41283</v>
       </c>
       <c r="I132">
-        <v>5195.925429290122</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>5195.9254292901223</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1132</v>
       </c>
@@ -4288,7 +4343,7 @@
       <c r="E133">
         <v>8</v>
       </c>
-      <c r="F133" s="2">
+      <c r="F133" s="3">
         <v>45012</v>
       </c>
       <c r="G133">
@@ -4298,10 +4353,10 @@
         <v>314208</v>
       </c>
       <c r="I133">
-        <v>62480.23892127522</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>62480.238921275217</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1133</v>
       </c>
@@ -4317,7 +4372,7 @@
       <c r="E134">
         <v>6</v>
       </c>
-      <c r="F134" s="2">
+      <c r="F134" s="3">
         <v>45400</v>
       </c>
       <c r="G134">
@@ -4330,7 +4385,7 @@
         <v>10312.86900623763</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1134</v>
       </c>
@@ -4346,7 +4401,7 @@
       <c r="E135">
         <v>8</v>
       </c>
-      <c r="F135" s="2">
+      <c r="F135" s="3">
         <v>45052</v>
       </c>
       <c r="G135">
@@ -4356,10 +4411,10 @@
         <v>162920</v>
       </c>
       <c r="I135">
-        <v>33815.34573387302</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>33815.345733873022</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1135</v>
       </c>
@@ -4375,7 +4430,7 @@
       <c r="E136">
         <v>5</v>
       </c>
-      <c r="F136" s="2">
+      <c r="F136" s="3">
         <v>45463</v>
       </c>
       <c r="G136">
@@ -4388,7 +4443,7 @@
         <v>30135.51634854218</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1136</v>
       </c>
@@ -4404,7 +4459,7 @@
       <c r="E137">
         <v>8</v>
       </c>
-      <c r="F137" s="2">
+      <c r="F137" s="3">
         <v>45071</v>
       </c>
       <c r="G137">
@@ -4414,10 +4469,10 @@
         <v>36696</v>
       </c>
       <c r="I137">
-        <v>2673.430568568704</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>2673.4305685687041</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1137</v>
       </c>
@@ -4433,7 +4488,7 @@
       <c r="E138">
         <v>4</v>
       </c>
-      <c r="F138" s="2">
+      <c r="F138" s="3">
         <v>45451</v>
       </c>
       <c r="G138">
@@ -4446,7 +4501,7 @@
         <v>10775.07473377866</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1138</v>
       </c>
@@ -4462,7 +4517,7 @@
       <c r="E139">
         <v>8</v>
       </c>
-      <c r="F139" s="2">
+      <c r="F139" s="3">
         <v>45138</v>
       </c>
       <c r="G139">
@@ -4472,10 +4527,10 @@
         <v>274920</v>
       </c>
       <c r="I139">
-        <v>61225.68144346283</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>61225.681443462832</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1139</v>
       </c>
@@ -4491,7 +4546,7 @@
       <c r="E140">
         <v>2</v>
       </c>
-      <c r="F140" s="2">
+      <c r="F140" s="3">
         <v>44951</v>
       </c>
       <c r="G140">
@@ -4501,10 +4556,10 @@
         <v>68730</v>
       </c>
       <c r="I140">
-        <v>16123.51134630198</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>16123.511346301981</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1140</v>
       </c>
@@ -4520,7 +4575,7 @@
       <c r="E141">
         <v>5</v>
       </c>
-      <c r="F141" s="2">
+      <c r="F141" s="3">
         <v>45506</v>
       </c>
       <c r="G141">
@@ -4530,10 +4585,10 @@
         <v>195725</v>
       </c>
       <c r="I141">
-        <v>28016.08128816994</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>28016.081288169938</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1141</v>
       </c>
@@ -4549,7 +4604,7 @@
       <c r="E142">
         <v>9</v>
       </c>
-      <c r="F142" s="2">
+      <c r="F142" s="3">
         <v>45320</v>
       </c>
       <c r="G142">
@@ -4559,10 +4614,10 @@
         <v>131976</v>
       </c>
       <c r="I142">
-        <v>19290.58820405672</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>19290.588204056719</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1142</v>
       </c>
@@ -4578,7 +4633,7 @@
       <c r="E143">
         <v>4</v>
       </c>
-      <c r="F143" s="2">
+      <c r="F143" s="3">
         <v>44993</v>
       </c>
       <c r="G143">
@@ -4591,7 +4646,7 @@
         <v>36713.7822213728</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1143</v>
       </c>
@@ -4607,7 +4662,7 @@
       <c r="E144">
         <v>6</v>
       </c>
-      <c r="F144" s="2">
+      <c r="F144" s="3">
         <v>45159</v>
       </c>
       <c r="G144">
@@ -4617,10 +4672,10 @@
         <v>221820</v>
       </c>
       <c r="I144">
-        <v>37135.69469559468</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>37135.694695594677</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1144</v>
       </c>
@@ -4636,7 +4691,7 @@
       <c r="E145">
         <v>1</v>
       </c>
-      <c r="F145" s="2">
+      <c r="F145" s="3">
         <v>45035</v>
       </c>
       <c r="G145">
@@ -4646,10 +4701,10 @@
         <v>36970</v>
       </c>
       <c r="I145">
-        <v>2091.368279779983</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>2091.3682797799829</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1145</v>
       </c>
@@ -4665,7 +4720,7 @@
       <c r="E146">
         <v>9</v>
       </c>
-      <c r="F146" s="2">
+      <c r="F146" s="3">
         <v>45072</v>
       </c>
       <c r="G146">
@@ -4675,10 +4730,10 @@
         <v>352305</v>
       </c>
       <c r="I146">
-        <v>81928.4899039263</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>81928.489903926296</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1146</v>
       </c>
@@ -4694,7 +4749,7 @@
       <c r="E147">
         <v>1</v>
       </c>
-      <c r="F147" s="2">
+      <c r="F147" s="3">
         <v>45037</v>
       </c>
       <c r="G147">
@@ -4704,10 +4759,10 @@
         <v>4587</v>
       </c>
       <c r="I147">
-        <v>457.0729385854112</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>457.07293858541118</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1147</v>
       </c>
@@ -4723,7 +4778,7 @@
       <c r="E148">
         <v>5</v>
       </c>
-      <c r="F148" s="2">
+      <c r="F148" s="3">
         <v>45154</v>
       </c>
       <c r="G148">
@@ -4733,10 +4788,10 @@
         <v>119890</v>
       </c>
       <c r="I148">
-        <v>19844.95899520712</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>19844.958995207118</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1148</v>
       </c>
@@ -4752,7 +4807,7 @@
       <c r="E149">
         <v>4</v>
       </c>
-      <c r="F149" s="2">
+      <c r="F149" s="3">
         <v>45037</v>
       </c>
       <c r="G149">
@@ -4762,10 +4817,10 @@
         <v>84700</v>
       </c>
       <c r="I149">
-        <v>7038.795597229877</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>7038.7955972298769</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1149</v>
       </c>
@@ -4781,7 +4836,7 @@
       <c r="E150">
         <v>3</v>
       </c>
-      <c r="F150" s="2">
+      <c r="F150" s="3">
         <v>45396</v>
       </c>
       <c r="G150">
@@ -4791,10 +4846,10 @@
         <v>117828</v>
       </c>
       <c r="I150">
-        <v>6689.782738707159</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>6689.7827387071593</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1150</v>
       </c>
@@ -4810,7 +4865,7 @@
       <c r="E151">
         <v>6</v>
       </c>
-      <c r="F151" s="2">
+      <c r="F151" s="3">
         <v>44960</v>
       </c>
       <c r="G151">
@@ -4823,7 +4878,7 @@
         <v>13656.59964682783</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1151</v>
       </c>
@@ -4839,7 +4894,7 @@
       <c r="E152">
         <v>2</v>
       </c>
-      <c r="F152" s="2">
+      <c r="F152" s="3">
         <v>45549</v>
       </c>
       <c r="G152">
@@ -4849,10 +4904,10 @@
         <v>60892</v>
       </c>
       <c r="I152">
-        <v>12549.78892477928</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>12549.788924779279</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1152</v>
       </c>
@@ -4868,7 +4923,7 @@
       <c r="E153">
         <v>3</v>
       </c>
-      <c r="F153" s="2">
+      <c r="F153" s="3">
         <v>45295</v>
       </c>
       <c r="G153">
@@ -4878,10 +4933,10 @@
         <v>71934</v>
       </c>
       <c r="I153">
-        <v>7590.291135184913</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>7590.2911351849134</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1153</v>
       </c>
@@ -4897,7 +4952,7 @@
       <c r="E154">
         <v>5</v>
       </c>
-      <c r="F154" s="2">
+      <c r="F154" s="3">
         <v>45521</v>
       </c>
       <c r="G154">
@@ -4907,10 +4962,10 @@
         <v>93195</v>
       </c>
       <c r="I154">
-        <v>8762.141973257569</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>8762.1419732575687</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1154</v>
       </c>
@@ -4926,7 +4981,7 @@
       <c r="E155">
         <v>9</v>
       </c>
-      <c r="F155" s="2">
+      <c r="F155" s="3">
         <v>45480</v>
       </c>
       <c r="G155">
@@ -4936,10 +4991,10 @@
         <v>332730</v>
       </c>
       <c r="I155">
-        <v>30789.55547477124</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>30789.555474771241</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1155</v>
       </c>
@@ -4955,7 +5010,7 @@
       <c r="E156">
         <v>2</v>
       </c>
-      <c r="F156" s="2">
+      <c r="F156" s="3">
         <v>45351</v>
       </c>
       <c r="G156">
@@ -4968,7 +5023,7 @@
         <v>5773.694537968845</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1156</v>
       </c>
@@ -4984,7 +5039,7 @@
       <c r="E157">
         <v>8</v>
       </c>
-      <c r="F157" s="2">
+      <c r="F157" s="3">
         <v>45539</v>
       </c>
       <c r="G157">
@@ -4997,7 +5052,7 @@
         <v>69216.61264365699</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1157</v>
       </c>
@@ -5013,7 +5068,7 @@
       <c r="E158">
         <v>2</v>
       </c>
-      <c r="F158" s="2">
+      <c r="F158" s="3">
         <v>45444</v>
       </c>
       <c r="G158">
@@ -5023,10 +5078,10 @@
         <v>68730</v>
       </c>
       <c r="I158">
-        <v>9745.76262928186</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>9745.7626292818604</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1158</v>
       </c>
@@ -5042,7 +5097,7 @@
       <c r="E159">
         <v>5</v>
       </c>
-      <c r="F159" s="2">
+      <c r="F159" s="3">
         <v>45618</v>
       </c>
       <c r="G159">
@@ -5052,10 +5107,10 @@
         <v>225555</v>
       </c>
       <c r="I159">
-        <v>36418.35249599895</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>36418.352495998952</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1159</v>
       </c>
@@ -5071,7 +5126,7 @@
       <c r="E160">
         <v>7</v>
       </c>
-      <c r="F160" s="2">
+      <c r="F160" s="3">
         <v>45208</v>
       </c>
       <c r="G160">
@@ -5081,10 +5136,10 @@
         <v>167846</v>
       </c>
       <c r="I160">
-        <v>37283.02833497762</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>37283.028334977622</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1160</v>
       </c>
@@ -5100,7 +5155,7 @@
       <c r="E161">
         <v>8</v>
       </c>
-      <c r="F161" s="2">
+      <c r="F161" s="3">
         <v>45246</v>
       </c>
       <c r="G161">
@@ -5110,10 +5165,10 @@
         <v>313160</v>
       </c>
       <c r="I161">
-        <v>49170.48663625291</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>49170.486636252906</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1161</v>
       </c>
@@ -5129,7 +5184,7 @@
       <c r="E162">
         <v>1</v>
       </c>
-      <c r="F162" s="2">
+      <c r="F162" s="3">
         <v>45369</v>
       </c>
       <c r="G162">
@@ -5139,10 +5194,10 @@
         <v>3922</v>
       </c>
       <c r="I162">
-        <v>340.7926763409508</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>340.79267634095078</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1162</v>
       </c>
@@ -5158,7 +5213,7 @@
       <c r="E163">
         <v>6</v>
       </c>
-      <c r="F163" s="2">
+      <c r="F163" s="3">
         <v>45241</v>
       </c>
       <c r="G163">
@@ -5171,7 +5226,7 @@
         <v>2586.618199137748</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1163</v>
       </c>
@@ -5187,7 +5242,7 @@
       <c r="E164">
         <v>1</v>
       </c>
-      <c r="F164" s="2">
+      <c r="F164" s="3">
         <v>45303</v>
       </c>
       <c r="G164">
@@ -5197,10 +5252,10 @@
         <v>39145</v>
       </c>
       <c r="I164">
-        <v>4383.746195756955</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>4383.7461957569549</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1164</v>
       </c>
@@ -5216,7 +5271,7 @@
       <c r="E165">
         <v>2</v>
       </c>
-      <c r="F165" s="2">
+      <c r="F165" s="3">
         <v>45215</v>
       </c>
       <c r="G165">
@@ -5226,10 +5281,10 @@
         <v>68730</v>
       </c>
       <c r="I165">
-        <v>8898.034815080142</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>8898.0348150801419</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1165</v>
       </c>
@@ -5245,7 +5300,7 @@
       <c r="E166">
         <v>1</v>
       </c>
-      <c r="F166" s="2">
+      <c r="F166" s="3">
         <v>45363</v>
       </c>
       <c r="G166">
@@ -5255,10 +5310,10 @@
         <v>39276</v>
       </c>
       <c r="I166">
-        <v>5316.312209201235</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>5316.3122092012354</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1166</v>
       </c>
@@ -5274,7 +5329,7 @@
       <c r="E167">
         <v>5</v>
       </c>
-      <c r="F167" s="2">
+      <c r="F167" s="3">
         <v>45588</v>
       </c>
       <c r="G167">
@@ -5287,7 +5342,7 @@
         <v>21378.8108795425</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1167</v>
       </c>
@@ -5303,7 +5358,7 @@
       <c r="E168">
         <v>9</v>
       </c>
-      <c r="F168" s="2">
+      <c r="F168" s="3">
         <v>45203</v>
       </c>
       <c r="G168">
@@ -5313,10 +5368,10 @@
         <v>190575</v>
       </c>
       <c r="I168">
-        <v>22845.63546876533</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>22845.635468765329</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1168</v>
       </c>
@@ -5332,7 +5387,7 @@
       <c r="E169">
         <v>6</v>
       </c>
-      <c r="F169" s="2">
+      <c r="F169" s="3">
         <v>45636</v>
       </c>
       <c r="G169">
@@ -5342,10 +5397,10 @@
         <v>23532</v>
       </c>
       <c r="I169">
-        <v>3380.286277376508</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>3380.2862773765082</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1169</v>
       </c>
@@ -5361,7 +5416,7 @@
       <c r="E170">
         <v>1</v>
       </c>
-      <c r="F170" s="2">
+      <c r="F170" s="3">
         <v>45508</v>
       </c>
       <c r="G170">
@@ -5371,10 +5426,10 @@
         <v>18639</v>
       </c>
       <c r="I170">
-        <v>3261.735484528913</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>3261.7354845289128</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1170</v>
       </c>
@@ -5390,7 +5445,7 @@
       <c r="E171">
         <v>1</v>
       </c>
-      <c r="F171" s="2">
+      <c r="F171" s="3">
         <v>45429</v>
       </c>
       <c r="G171">
@@ -5400,10 +5455,10 @@
         <v>3922</v>
       </c>
       <c r="I171">
-        <v>492.3882331720688</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>492.38823317206879</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1171</v>
       </c>
@@ -5419,7 +5474,7 @@
       <c r="E172">
         <v>2</v>
       </c>
-      <c r="F172" s="2">
+      <c r="F172" s="3">
         <v>45550</v>
       </c>
       <c r="G172">
@@ -5432,7 +5487,7 @@
         <v>1704.602879093012</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1172</v>
       </c>
@@ -5448,7 +5503,7 @@
       <c r="E173">
         <v>9</v>
       </c>
-      <c r="F173" s="2">
+      <c r="F173" s="3">
         <v>45442</v>
       </c>
       <c r="G173">
@@ -5458,10 +5513,10 @@
         <v>35298</v>
       </c>
       <c r="I173">
-        <v>5912.087464450871</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>5912.0874644508713</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1173</v>
       </c>
@@ -5477,7 +5532,7 @@
       <c r="E174">
         <v>3</v>
       </c>
-      <c r="F174" s="2">
+      <c r="F174" s="3">
         <v>45276</v>
       </c>
       <c r="G174">
@@ -5487,10 +5542,10 @@
         <v>61095</v>
       </c>
       <c r="I174">
-        <v>6647.681935401052</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>6647.6819354010522</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1174</v>
       </c>
@@ -5506,7 +5561,7 @@
       <c r="E175">
         <v>1</v>
       </c>
-      <c r="F175" s="2">
+      <c r="F175" s="3">
         <v>45372</v>
       </c>
       <c r="G175">
@@ -5516,10 +5571,10 @@
         <v>20365</v>
       </c>
       <c r="I175">
-        <v>3926.61312074397</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>3926.6131207439698</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1175</v>
       </c>
@@ -5535,7 +5590,7 @@
       <c r="E176">
         <v>5</v>
       </c>
-      <c r="F176" s="2">
+      <c r="F176" s="3">
         <v>45276</v>
       </c>
       <c r="G176">
@@ -5545,10 +5600,10 @@
         <v>93195</v>
       </c>
       <c r="I176">
-        <v>14494.57604216866</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>14494.576042168659</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1176</v>
       </c>
@@ -5564,7 +5619,7 @@
       <c r="E177">
         <v>7</v>
       </c>
-      <c r="F177" s="2">
+      <c r="F177" s="3">
         <v>45533</v>
       </c>
       <c r="G177">
@@ -5574,10 +5629,10 @@
         <v>258790</v>
       </c>
       <c r="I177">
-        <v>40601.86801969259</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>40601.868019692592</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1177</v>
       </c>
@@ -5593,7 +5648,7 @@
       <c r="E178">
         <v>6</v>
       </c>
-      <c r="F178" s="2">
+      <c r="F178" s="3">
         <v>45590</v>
       </c>
       <c r="G178">
@@ -5603,10 +5658,10 @@
         <v>221820</v>
       </c>
       <c r="I178">
-        <v>32433.98574226686</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>32433.985742266861</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1178</v>
       </c>
@@ -5622,7 +5677,7 @@
       <c r="E179">
         <v>1</v>
       </c>
-      <c r="F179" s="2">
+      <c r="F179" s="3">
         <v>45063</v>
       </c>
       <c r="G179">
@@ -5632,10 +5687,10 @@
         <v>18864</v>
       </c>
       <c r="I179">
-        <v>2818.326680512808</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>2818.3266805128078</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1179</v>
       </c>
@@ -5651,7 +5706,7 @@
       <c r="E180">
         <v>5</v>
       </c>
-      <c r="F180" s="2">
+      <c r="F180" s="3">
         <v>45169</v>
       </c>
       <c r="G180">
@@ -5664,7 +5719,7 @@
         <v>20677.73066391399</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1180</v>
       </c>
@@ -5680,7 +5735,7 @@
       <c r="E181">
         <v>5</v>
       </c>
-      <c r="F181" s="2">
+      <c r="F181" s="3">
         <v>45469</v>
       </c>
       <c r="G181">
@@ -5693,7 +5748,7 @@
         <v>12130.20853722066</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1181</v>
       </c>
@@ -5709,7 +5764,7 @@
       <c r="E182">
         <v>6</v>
       </c>
-      <c r="F182" s="2">
+      <c r="F182" s="3">
         <v>44966</v>
       </c>
       <c r="G182">
@@ -5719,10 +5774,10 @@
         <v>121614</v>
       </c>
       <c r="I182">
-        <v>14213.3397869426</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>14213.339786942601</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1182</v>
       </c>
@@ -5738,7 +5793,7 @@
       <c r="E183">
         <v>3</v>
       </c>
-      <c r="F183" s="2">
+      <c r="F183" s="3">
         <v>45155</v>
       </c>
       <c r="G183">
@@ -5748,10 +5803,10 @@
         <v>127290</v>
       </c>
       <c r="I183">
-        <v>8286.664635719413</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>8286.6646357194131</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1183</v>
       </c>
@@ -5767,7 +5822,7 @@
       <c r="E184">
         <v>5</v>
       </c>
-      <c r="F184" s="2">
+      <c r="F184" s="3">
         <v>45474</v>
       </c>
       <c r="G184">
@@ -5777,10 +5832,10 @@
         <v>73320</v>
       </c>
       <c r="I184">
-        <v>14711.60258104062</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>14711.602581040621</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1184</v>
       </c>
@@ -5796,7 +5851,7 @@
       <c r="E185">
         <v>7</v>
       </c>
-      <c r="F185" s="2">
+      <c r="F185" s="3">
         <v>45149</v>
       </c>
       <c r="G185">
@@ -5806,10 +5861,10 @@
         <v>27454</v>
       </c>
       <c r="I185">
-        <v>2867.85502389822</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>2867.8550238982202</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1185</v>
       </c>
@@ -5825,7 +5880,7 @@
       <c r="E186">
         <v>5</v>
       </c>
-      <c r="F186" s="2">
+      <c r="F186" s="3">
         <v>44932</v>
       </c>
       <c r="G186">
@@ -5835,10 +5890,10 @@
         <v>101345</v>
       </c>
       <c r="I186">
-        <v>23257.26697661896</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>23257.266976618961</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1186</v>
       </c>
@@ -5854,7 +5909,7 @@
       <c r="E187">
         <v>5</v>
       </c>
-      <c r="F187" s="2">
+      <c r="F187" s="3">
         <v>45248</v>
       </c>
       <c r="G187">
@@ -5864,10 +5919,10 @@
         <v>93195</v>
       </c>
       <c r="I187">
-        <v>14474.64604006257</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>14474.646040062569</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1187</v>
       </c>
@@ -5883,7 +5938,7 @@
       <c r="E188">
         <v>5</v>
       </c>
-      <c r="F188" s="2">
+      <c r="F188" s="3">
         <v>45394</v>
       </c>
       <c r="G188">
@@ -5893,10 +5948,10 @@
         <v>195725</v>
       </c>
       <c r="I188">
-        <v>41131.59980482421</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>41131.599804824211</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1188</v>
       </c>
@@ -5912,7 +5967,7 @@
       <c r="E189">
         <v>3</v>
       </c>
-      <c r="F189" s="2">
+      <c r="F189" s="3">
         <v>45001</v>
       </c>
       <c r="G189">
@@ -5925,7 +5980,7 @@
         <v>15016.31321179143</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1189</v>
       </c>
@@ -5941,7 +5996,7 @@
       <c r="E190">
         <v>1</v>
       </c>
-      <c r="F190" s="2">
+      <c r="F190" s="3">
         <v>44930</v>
       </c>
       <c r="G190">
@@ -5951,10 +6006,10 @@
         <v>20269</v>
       </c>
       <c r="I190">
-        <v>4417.786078465046</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>4417.7860784650456</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1190</v>
       </c>
@@ -5970,7 +6025,7 @@
       <c r="E191">
         <v>5</v>
       </c>
-      <c r="F191" s="2">
+      <c r="F191" s="3">
         <v>45572</v>
       </c>
       <c r="G191">
@@ -5980,10 +6035,10 @@
         <v>73320</v>
       </c>
       <c r="I191">
-        <v>16379.59649680898</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>16379.596496808979</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1191</v>
       </c>
@@ -5999,7 +6054,7 @@
       <c r="E192">
         <v>9</v>
       </c>
-      <c r="F192" s="2">
+      <c r="F192" s="3">
         <v>45044</v>
       </c>
       <c r="G192">
@@ -6012,7 +6067,7 @@
         <v>31259.13261509583</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1192</v>
       </c>
@@ -6028,7 +6083,7 @@
       <c r="E193">
         <v>1</v>
       </c>
-      <c r="F193" s="2">
+      <c r="F193" s="3">
         <v>45532</v>
       </c>
       <c r="G193">
@@ -6038,10 +6093,10 @@
         <v>26393</v>
       </c>
       <c r="I193">
-        <v>4231.972891335951</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>4231.9728913359513</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1193</v>
       </c>
@@ -6057,7 +6112,7 @@
       <c r="E194">
         <v>3</v>
       </c>
-      <c r="F194" s="2">
+      <c r="F194" s="3">
         <v>45430</v>
       </c>
       <c r="G194">
@@ -6070,7 +6125,7 @@
         <v>11177.25612760858</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1194</v>
       </c>
@@ -6086,7 +6141,7 @@
       <c r="E195">
         <v>4</v>
       </c>
-      <c r="F195" s="2">
+      <c r="F195" s="3">
         <v>45500</v>
       </c>
       <c r="G195">
@@ -6096,10 +6151,10 @@
         <v>95912</v>
       </c>
       <c r="I195">
-        <v>8557.51992355969</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>8557.5199235596901</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1195</v>
       </c>
@@ -6115,7 +6170,7 @@
       <c r="E196">
         <v>1</v>
       </c>
-      <c r="F196" s="2">
+      <c r="F196" s="3">
         <v>45367</v>
       </c>
       <c r="G196">
@@ -6125,10 +6180,10 @@
         <v>20269</v>
       </c>
       <c r="I196">
-        <v>3062.67784032004</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>3062.6778403200401</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1196</v>
       </c>
@@ -6144,7 +6199,7 @@
       <c r="E197">
         <v>1</v>
       </c>
-      <c r="F197" s="2">
+      <c r="F197" s="3">
         <v>45120</v>
       </c>
       <c r="G197">
@@ -6157,7 +6212,7 @@
         <v>4460.675544246641</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1197</v>
       </c>
@@ -6173,7 +6228,7 @@
       <c r="E198">
         <v>8</v>
       </c>
-      <c r="F198" s="2">
+      <c r="F198" s="3">
         <v>45641</v>
       </c>
       <c r="G198">
@@ -6183,10 +6238,10 @@
         <v>169400</v>
       </c>
       <c r="I198">
-        <v>19964.50981096295</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>19964.509810962951</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1198</v>
       </c>
@@ -6202,7 +6257,7 @@
       <c r="E199">
         <v>2</v>
       </c>
-      <c r="F199" s="2">
+      <c r="F199" s="3">
         <v>45318</v>
       </c>
       <c r="G199">
@@ -6212,10 +6267,10 @@
         <v>78290</v>
       </c>
       <c r="I199">
-        <v>12830.84660114089</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>12830.846601140889</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1199</v>
       </c>
@@ -6231,7 +6286,7 @@
       <c r="E200">
         <v>8</v>
       </c>
-      <c r="F200" s="2">
+      <c r="F200" s="3">
         <v>44952</v>
       </c>
       <c r="G200">
@@ -6241,10 +6296,10 @@
         <v>339440</v>
       </c>
       <c r="I200">
-        <v>77219.91723687669</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>77219.917236876689</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1200</v>
       </c>
@@ -6260,7 +6315,7 @@
       <c r="E201">
         <v>7</v>
       </c>
-      <c r="F201" s="2">
+      <c r="F201" s="3">
         <v>45361</v>
       </c>
       <c r="G201">
